--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9892986746483745</v>
+        <v>0.9950608814158476</v>
       </c>
       <c r="E2">
-        <v>0.9892986746483745</v>
+        <v>0.9950608814158476</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3301682599189371</v>
+        <v>0.02451892750546465</v>
       </c>
       <c r="E3">
-        <v>0.3301682599189371</v>
+        <v>0.02451892750546465</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9136764537392971</v>
+        <v>0.9990776111709648</v>
       </c>
       <c r="E4">
-        <v>0.9136764537392971</v>
+        <v>0.9990776111709648</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.452358806444477E-18</v>
+        <v>3.357927421125209E-18</v>
       </c>
       <c r="E5">
-        <v>1.452358806444477E-18</v>
+        <v>3.357927421125209E-18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999998233946</v>
+        <v>0.9999999996366451</v>
       </c>
       <c r="E6">
-        <v>0.9999999998233946</v>
+        <v>0.9999999996366451</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999980818</v>
+        <v>0.9999999999966329</v>
       </c>
       <c r="E7">
-        <v>1.918243341947345E-12</v>
+        <v>3.367084389083175E-12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.343730694645351E-06</v>
+        <v>1.499720250130991E-07</v>
       </c>
       <c r="E8">
-        <v>0.9999986562693054</v>
+        <v>0.999999850027975</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.554682731181478E-06</v>
+        <v>0.0002771603847556075</v>
       </c>
       <c r="E9">
-        <v>0.9999954453172688</v>
+        <v>0.9997228396152444</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999535493416208</v>
+        <v>0.9999998913804018</v>
       </c>
       <c r="E10">
-        <v>4.645065837916018E-05</v>
+        <v>1.0861959820474E-07</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0001054989089989597</v>
+        <v>0.0003427357102554755</v>
       </c>
       <c r="E11">
-        <v>0.9998945010910011</v>
+        <v>0.9996572642897446</v>
       </c>
       <c r="F11">
-        <v>6.482115268707275</v>
+        <v>6.594186305999756</v>
       </c>
       <c r="G11">
         <v>0.4</v>
